--- a/crypto_data.xlsx
+++ b/crypto_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Live Data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Analysis Summary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Top 5 Coins" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Live Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analysis Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top 5 Coins" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98307</v>
+        <v>98378</v>
       </c>
       <c r="D2" t="n">
-        <v>1948790224885</v>
+        <v>1949967949055</v>
       </c>
       <c r="E2" t="n">
-        <v>33265698362</v>
+        <v>30831544991</v>
       </c>
       <c r="F2" t="n">
-        <v>1.17059</v>
+        <v>1.11755</v>
       </c>
     </row>
     <row r="3">
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2710.1</v>
+        <v>2717.45</v>
       </c>
       <c r="D3" t="n">
-        <v>326673489900</v>
+        <v>327617610091</v>
       </c>
       <c r="E3" t="n">
-        <v>16775319528</v>
+        <v>17449117756</v>
       </c>
       <c r="F3" t="n">
-        <v>2.86424</v>
+        <v>3.06994</v>
       </c>
     </row>
     <row r="4">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="D4" t="n">
-        <v>144609251589</v>
+        <v>145081227122</v>
       </c>
       <c r="E4" t="n">
-        <v>3834778270</v>
+        <v>3907969463</v>
       </c>
       <c r="F4" t="n">
-        <v>4.69277</v>
+        <v>4.56069</v>
       </c>
     </row>
     <row r="5">
@@ -554,13 +554,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>141903449557</v>
+        <v>141898363459</v>
       </c>
       <c r="E5" t="n">
-        <v>61597317453</v>
+        <v>40577424185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00703</v>
+        <v>0.00444</v>
       </c>
     </row>
     <row r="6">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>204.66</v>
+        <v>205.29</v>
       </c>
       <c r="D6" t="n">
-        <v>99912734739</v>
+        <v>100193535168</v>
       </c>
       <c r="E6" t="n">
-        <v>4706422983</v>
+        <v>4626755245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.91736</v>
+        <v>1.05606</v>
       </c>
     </row>
     <row r="7">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>638.75</v>
+        <v>637.5700000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>93171418711</v>
+        <v>92991284662</v>
       </c>
       <c r="E7" t="n">
-        <v>1175129957</v>
+        <v>1198567493</v>
       </c>
       <c r="F7" t="n">
-        <v>5.29823</v>
+        <v>4.75515</v>
       </c>
     </row>
     <row r="8">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.999996</v>
+        <v>0.999956</v>
       </c>
       <c r="D8" t="n">
-        <v>56257176470</v>
+        <v>56255245102</v>
       </c>
       <c r="E8" t="n">
-        <v>4093902303</v>
+        <v>7933864218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00698</v>
+        <v>0.00227</v>
       </c>
     </row>
     <row r="9">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.265576</v>
+        <v>0.267662</v>
       </c>
       <c r="D9" t="n">
-        <v>39286767679</v>
+        <v>39599565043</v>
       </c>
       <c r="E9" t="n">
-        <v>1290776047</v>
+        <v>1356120343</v>
       </c>
       <c r="F9" t="n">
-        <v>6.34217</v>
+        <v>6.84747</v>
       </c>
     </row>
     <row r="10">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.794856</v>
+        <v>0.798554</v>
       </c>
       <c r="D10" t="n">
-        <v>28551474694</v>
+        <v>28671647243</v>
       </c>
       <c r="E10" t="n">
-        <v>1123859294</v>
+        <v>1112193624</v>
       </c>
       <c r="F10" t="n">
-        <v>15.25319</v>
+        <v>15.04667</v>
       </c>
     </row>
     <row r="11">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2705.98</v>
+        <v>2716.36</v>
       </c>
       <c r="D11" t="n">
-        <v>25457634249</v>
+        <v>25535746690</v>
       </c>
       <c r="E11" t="n">
-        <v>60786425</v>
+        <v>62919303</v>
       </c>
       <c r="F11" t="n">
-        <v>2.92624</v>
+        <v>3.15691</v>
       </c>
     </row>
     <row r="12">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.245242</v>
+        <v>0.246737</v>
       </c>
       <c r="D12" t="n">
-        <v>21127049067</v>
+        <v>21233580552</v>
       </c>
       <c r="E12" t="n">
-        <v>827986145</v>
+        <v>828700539</v>
       </c>
       <c r="F12" t="n">
-        <v>5.53024</v>
+        <v>5.87347</v>
       </c>
     </row>
     <row r="13">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98036</v>
+        <v>98202</v>
       </c>
       <c r="D13" t="n">
-        <v>12659505947</v>
+        <v>12669396988</v>
       </c>
       <c r="E13" t="n">
-        <v>469154922</v>
+        <v>380848622</v>
       </c>
       <c r="F13" t="n">
-        <v>1.38987</v>
+        <v>1.20218</v>
       </c>
     </row>
     <row r="14">
@@ -767,16 +767,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19.56</v>
+        <v>19.71</v>
       </c>
       <c r="D14" t="n">
-        <v>12480467789</v>
+        <v>12580667428</v>
       </c>
       <c r="E14" t="n">
-        <v>541228863</v>
+        <v>546114374</v>
       </c>
       <c r="F14" t="n">
-        <v>5.7082</v>
+        <v>6.18812</v>
       </c>
     </row>
     <row r="15">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3217.55</v>
+        <v>3245.08</v>
       </c>
       <c r="D15" t="n">
-        <v>10967633930</v>
+        <v>11062575966</v>
       </c>
       <c r="E15" t="n">
-        <v>66516431</v>
+        <v>58103332</v>
       </c>
       <c r="F15" t="n">
-        <v>2.42022</v>
+        <v>3.33303</v>
       </c>
     </row>
     <row r="16">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.59</v>
+        <v>26.71</v>
       </c>
       <c r="D16" t="n">
-        <v>10954050193</v>
+        <v>10999380601</v>
       </c>
       <c r="E16" t="n">
-        <v>328172326</v>
+        <v>331551987</v>
       </c>
       <c r="F16" t="n">
-        <v>5.93229</v>
+        <v>5.99204</v>
       </c>
     </row>
     <row r="17">
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.49</v>
+        <v>3.52</v>
       </c>
       <c r="D17" t="n">
-        <v>10794427187</v>
+        <v>10889553321</v>
       </c>
       <c r="E17" t="n">
-        <v>1415880756</v>
+        <v>1431869272</v>
       </c>
       <c r="F17" t="n">
-        <v>12.81566</v>
+        <v>13.25156</v>
       </c>
     </row>
     <row r="18">
@@ -863,16 +863,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.329366</v>
+        <v>0.333783</v>
       </c>
       <c r="D18" t="n">
-        <v>10075014275</v>
+        <v>10197849144</v>
       </c>
       <c r="E18" t="n">
-        <v>295510786</v>
+        <v>333405837</v>
       </c>
       <c r="F18" t="n">
-        <v>5.40547</v>
+        <v>6.58576</v>
       </c>
     </row>
     <row r="19">
@@ -887,64 +887,64 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>128.81</v>
+        <v>129.48</v>
       </c>
       <c r="D19" t="n">
-        <v>9730703399</v>
+        <v>9774914822</v>
       </c>
       <c r="E19" t="n">
-        <v>1895019831</v>
+        <v>1920876731</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14303</v>
+        <v>13.36844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ton</t>
+          <t>shib</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.86</v>
+        <v>1.64e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>9626291805</v>
+        <v>9667068203</v>
       </c>
       <c r="E20" t="n">
-        <v>128910043</v>
+        <v>213587899</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9489300000000001</v>
+        <v>3.49655</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>shib</t>
+          <t>ton</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.626e-05</v>
+        <v>3.87</v>
       </c>
       <c r="D21" t="n">
-        <v>9579954394</v>
+        <v>9660530453</v>
       </c>
       <c r="E21" t="n">
-        <v>203747286</v>
+        <v>132863732</v>
       </c>
       <c r="F21" t="n">
-        <v>3.07319</v>
+        <v>1.43133</v>
       </c>
     </row>
     <row r="22">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.246263</v>
+        <v>0.246596</v>
       </c>
       <c r="D22" t="n">
-        <v>9423201004</v>
+        <v>9434839840</v>
       </c>
       <c r="E22" t="n">
-        <v>287298543</v>
+        <v>293198411</v>
       </c>
       <c r="F22" t="n">
-        <v>4.50673</v>
+        <v>3.83157</v>
       </c>
     </row>
     <row r="23">
@@ -986,13 +986,13 @@
         <v>9.890000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>9142523179</v>
+        <v>9140719157</v>
       </c>
       <c r="E23" t="n">
-        <v>254619</v>
+        <v>262129</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.008109999999999999</v>
+        <v>0.00218</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0.999806</v>
       </c>
       <c r="D24" t="n">
-        <v>8373488257</v>
+        <v>8369645466</v>
       </c>
       <c r="E24" t="n">
-        <v>5786430</v>
+        <v>8662840</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.17846</v>
+        <v>0.01805</v>
       </c>
     </row>
     <row r="25">
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24.76</v>
+        <v>24.65</v>
       </c>
       <c r="D25" t="n">
-        <v>8253648868</v>
+        <v>8232813542</v>
       </c>
       <c r="E25" t="n">
-        <v>115850065</v>
+        <v>115611494</v>
       </c>
       <c r="F25" t="n">
-        <v>6.25736</v>
+        <v>4.49598</v>
       </c>
     </row>
     <row r="26">
@@ -1055,16 +1055,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2708.41</v>
+        <v>2719.07</v>
       </c>
       <c r="D26" t="n">
-        <v>7903537896</v>
+        <v>7927590219</v>
       </c>
       <c r="E26" t="n">
-        <v>138278982</v>
+        <v>868183405</v>
       </c>
       <c r="F26" t="n">
-        <v>2.88443</v>
+        <v>3.15158</v>
       </c>
     </row>
     <row r="27">
@@ -1079,16 +1079,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.17</v>
+        <v>5.16</v>
       </c>
       <c r="D27" t="n">
-        <v>7872695576</v>
+        <v>7858327121</v>
       </c>
       <c r="E27" t="n">
-        <v>227136873</v>
+        <v>231490380</v>
       </c>
       <c r="F27" t="n">
-        <v>8.10008</v>
+        <v>7.39783</v>
       </c>
     </row>
     <row r="28">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6.44</v>
+        <v>6.46</v>
       </c>
       <c r="D28" t="n">
-        <v>7732720542</v>
+        <v>7755346985</v>
       </c>
       <c r="E28" t="n">
-        <v>279221176</v>
+        <v>291350980</v>
       </c>
       <c r="F28" t="n">
-        <v>0.86538</v>
+        <v>1.09231</v>
       </c>
     </row>
     <row r="29">
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>341.06</v>
+        <v>341.46</v>
       </c>
       <c r="D29" t="n">
-        <v>6761199476</v>
+        <v>6778961379</v>
       </c>
       <c r="E29" t="n">
-        <v>152494421</v>
+        <v>155245166</v>
       </c>
       <c r="F29" t="n">
-        <v>4.30233</v>
+        <v>3.65109</v>
       </c>
     </row>
     <row r="30">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.999259</v>
+        <v>0.999433</v>
       </c>
       <c r="D30" t="n">
-        <v>6049670349</v>
+        <v>6049158470</v>
       </c>
       <c r="E30" t="n">
-        <v>109706737</v>
+        <v>112873588</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.02661</v>
+        <v>-0.07905</v>
       </c>
     </row>
     <row r="31">
@@ -1175,16 +1175,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.94</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>5967061484</v>
+        <v>5985041958</v>
       </c>
       <c r="E31" t="n">
-        <v>294856795</v>
+        <v>300166015</v>
       </c>
       <c r="F31" t="n">
-        <v>9.04453</v>
+        <v>9.343769999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="D32" t="n">
-        <v>5774979771</v>
+        <v>5780829298</v>
       </c>
       <c r="E32" t="n">
-        <v>225256021</v>
+        <v>223106100</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.47847</v>
+        <v>-2.87074</v>
       </c>
     </row>
     <row r="33">
@@ -1223,16 +1223,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2866.88</v>
+        <v>2877.48</v>
       </c>
       <c r="D33" t="n">
-        <v>5452481920</v>
+        <v>5472177033</v>
       </c>
       <c r="E33" t="n">
-        <v>14392096</v>
+        <v>15449285</v>
       </c>
       <c r="F33" t="n">
-        <v>2.81297</v>
+        <v>3.03136</v>
       </c>
     </row>
     <row r="34">
@@ -1247,16 +1247,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="D34" t="n">
-        <v>4396062550</v>
+        <v>4425503890</v>
       </c>
       <c r="E34" t="n">
-        <v>263792214</v>
+        <v>272713902</v>
       </c>
       <c r="F34" t="n">
-        <v>5.42567</v>
+        <v>5.59098</v>
       </c>
     </row>
     <row r="35">
@@ -1271,16 +1271,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.035e-05</v>
+        <v>1.042e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>4348743293</v>
+        <v>4385398337</v>
       </c>
       <c r="E35" t="n">
-        <v>826895424</v>
+        <v>857036292</v>
       </c>
       <c r="F35" t="n">
-        <v>8.39908</v>
+        <v>9.586679999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>220.94</v>
+        <v>222.37</v>
       </c>
       <c r="D36" t="n">
-        <v>4075278346</v>
+        <v>4096102049</v>
       </c>
       <c r="E36" t="n">
-        <v>65705578</v>
+        <v>66152100</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.47935</v>
+        <v>0.9656</v>
       </c>
     </row>
     <row r="37">
@@ -1319,16 +1319,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>27.72</v>
+        <v>27.71</v>
       </c>
       <c r="D37" t="n">
-        <v>3995146086</v>
+        <v>3994871266</v>
       </c>
       <c r="E37" t="n">
-        <v>20256550</v>
+        <v>15492595</v>
       </c>
       <c r="F37" t="n">
-        <v>1.15688</v>
+        <v>0.87598</v>
       </c>
     </row>
     <row r="38">
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.34</v>
+        <v>3.36</v>
       </c>
       <c r="D38" t="n">
-        <v>3935179278</v>
+        <v>3966746848</v>
       </c>
       <c r="E38" t="n">
-        <v>226813576</v>
+        <v>226580005</v>
       </c>
       <c r="F38" t="n">
-        <v>4.7995</v>
+        <v>5.32203</v>
       </c>
     </row>
     <row r="39">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>260.09</v>
+        <v>260.71</v>
       </c>
       <c r="D39" t="n">
-        <v>3919097116</v>
+        <v>3925529352</v>
       </c>
       <c r="E39" t="n">
-        <v>382026095</v>
+        <v>386375529</v>
       </c>
       <c r="F39" t="n">
-        <v>5.81007</v>
+        <v>5.89948</v>
       </c>
     </row>
     <row r="40">
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6.32</v>
+        <v>6.35</v>
       </c>
       <c r="D40" t="n">
-        <v>3636477641</v>
+        <v>3647011611</v>
       </c>
       <c r="E40" t="n">
-        <v>330673414</v>
+        <v>330921618</v>
       </c>
       <c r="F40" t="n">
-        <v>4.27236</v>
+        <v>4.53679</v>
       </c>
     </row>
     <row r="41">
@@ -1415,16 +1415,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.064</v>
+        <v>1.062</v>
       </c>
       <c r="D41" t="n">
-        <v>3582254142</v>
+        <v>3576015448</v>
       </c>
       <c r="E41" t="n">
-        <v>105572583</v>
+        <v>106756219</v>
       </c>
       <c r="F41" t="n">
-        <v>4.04691</v>
+        <v>3.42748</v>
       </c>
     </row>
     <row r="42">
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.36</v>
+        <v>7.39</v>
       </c>
       <c r="D42" t="n">
-        <v>3535954361</v>
+        <v>3550931776</v>
       </c>
       <c r="E42" t="n">
-        <v>92664340</v>
+        <v>105852512</v>
       </c>
       <c r="F42" t="n">
-        <v>4.61386</v>
+        <v>5.55054</v>
       </c>
     </row>
     <row r="43">
@@ -1463,16 +1463,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>424.14</v>
+        <v>430.44</v>
       </c>
       <c r="D43" t="n">
-        <v>3483233143</v>
+        <v>3544870956</v>
       </c>
       <c r="E43" t="n">
-        <v>214822820</v>
+        <v>222567736</v>
       </c>
       <c r="F43" t="n">
-        <v>10.62379</v>
+        <v>12.52062</v>
       </c>
     </row>
     <row r="44">
@@ -1487,16 +1487,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.999856</v>
+        <v>0.9998629999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>3481932874</v>
+        <v>3482171808</v>
       </c>
       <c r="E44" t="n">
-        <v>201131146</v>
+        <v>201684364</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00638</v>
+        <v>0.00355</v>
       </c>
     </row>
     <row r="45">
@@ -1511,16 +1511,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16.58</v>
+        <v>16.67</v>
       </c>
       <c r="D45" t="n">
-        <v>3318741002</v>
+        <v>3334414288</v>
       </c>
       <c r="E45" t="n">
-        <v>947596012</v>
+        <v>907097715</v>
       </c>
       <c r="F45" t="n">
-        <v>6.08601</v>
+        <v>4.23632</v>
       </c>
     </row>
     <row r="46">
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.038</v>
+        <v>1.036</v>
       </c>
       <c r="D46" t="n">
-        <v>3247014173</v>
+        <v>3242544890</v>
       </c>
       <c r="E46" t="n">
-        <v>1039283</v>
+        <v>800058</v>
       </c>
       <c r="F46" t="n">
-        <v>0.25722</v>
+        <v>-0.07795000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1559,16 +1559,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21.15</v>
+        <v>21.2</v>
       </c>
       <c r="D47" t="n">
-        <v>3187808065</v>
+        <v>3195750769</v>
       </c>
       <c r="E47" t="n">
-        <v>95788733</v>
+        <v>97581277</v>
       </c>
       <c r="F47" t="n">
-        <v>4.3131</v>
+        <v>3.91882</v>
       </c>
     </row>
     <row r="48">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>50.25</v>
+        <v>50.05</v>
       </c>
       <c r="D48" t="n">
-        <v>3015324719</v>
+        <v>3001289911</v>
       </c>
       <c r="E48" t="n">
-        <v>10149118</v>
+        <v>10451640</v>
       </c>
       <c r="F48" t="n">
-        <v>4.78363</v>
+        <v>4.63756</v>
       </c>
     </row>
     <row r="49">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.03527557</v>
+        <v>0.03557945</v>
       </c>
       <c r="D49" t="n">
-        <v>2859697419</v>
+        <v>2880695167</v>
       </c>
       <c r="E49" t="n">
-        <v>54186677</v>
+        <v>54309835</v>
       </c>
       <c r="F49" t="n">
-        <v>8.58981</v>
+        <v>8.7281</v>
       </c>
     </row>
     <row r="50">
@@ -1631,16 +1631,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22.43</v>
+        <v>22.46</v>
       </c>
       <c r="D50" t="n">
-        <v>2823394748</v>
+        <v>2825829131</v>
       </c>
       <c r="E50" t="n">
-        <v>12926263</v>
+        <v>15277737</v>
       </c>
       <c r="F50" t="n">
-        <v>4.05995</v>
+        <v>4.33586</v>
       </c>
     </row>
     <row r="51">
@@ -1655,16 +1655,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.324736</v>
+        <v>0.328043</v>
       </c>
       <c r="D51" t="n">
-        <v>2776804657</v>
+        <v>2805742506</v>
       </c>
       <c r="E51" t="n">
-        <v>75386886</v>
+        <v>77026542</v>
       </c>
       <c r="F51" t="n">
-        <v>6.07116</v>
+        <v>6.65736</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1710,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4261.0878490436</v>
+        <v>4267.342080785399</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.25319</v>
+        <v>15.04667</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.47847</v>
+        <v>-2.87074</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1811,16 +1811,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>98307</v>
+        <v>98378</v>
       </c>
       <c r="D2" t="n">
-        <v>1948790224885</v>
+        <v>1949967949055</v>
       </c>
       <c r="E2" t="n">
-        <v>33265698362</v>
+        <v>30831544991</v>
       </c>
       <c r="F2" t="n">
-        <v>1.17059</v>
+        <v>1.11755</v>
       </c>
     </row>
     <row r="3">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2710.1</v>
+        <v>2717.45</v>
       </c>
       <c r="D3" t="n">
-        <v>326673489900</v>
+        <v>327617610091</v>
       </c>
       <c r="E3" t="n">
-        <v>16775319528</v>
+        <v>17449117756</v>
       </c>
       <c r="F3" t="n">
-        <v>2.86424</v>
+        <v>3.06994</v>
       </c>
     </row>
     <row r="4">
@@ -1859,16 +1859,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.5</v>
+        <v>2.51</v>
       </c>
       <c r="D4" t="n">
-        <v>144609251589</v>
+        <v>145081227122</v>
       </c>
       <c r="E4" t="n">
-        <v>3834778270</v>
+        <v>3907969463</v>
       </c>
       <c r="F4" t="n">
-        <v>4.69277</v>
+        <v>4.56069</v>
       </c>
     </row>
     <row r="5">
@@ -1886,13 +1886,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>141903449557</v>
+        <v>141898363459</v>
       </c>
       <c r="E5" t="n">
-        <v>61597317453</v>
+        <v>40577424185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00703</v>
+        <v>0.00444</v>
       </c>
     </row>
     <row r="6">
@@ -1907,16 +1907,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>204.66</v>
+        <v>205.29</v>
       </c>
       <c r="D6" t="n">
-        <v>99912734739</v>
+        <v>100193535168</v>
       </c>
       <c r="E6" t="n">
-        <v>4706422983</v>
+        <v>4626755245</v>
       </c>
       <c r="F6" t="n">
-        <v>0.91736</v>
+        <v>1.05606</v>
       </c>
     </row>
   </sheetData>
